--- a/biology/Botanique/Zingiber_spectabile/Zingiber_spectabile.xlsx
+++ b/biology/Botanique/Zingiber_spectabile/Zingiber_spectabile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zingiber spectabile est une plante herbacée du genre Zingiber de la famille des Zingiberacées, originaire des forêts humides de la Thaïlande à la Malaisie péninsulaire.
 La découverte de Zingiber spectabile fut faite par le botaniste britannique William Griffith (1810-1845) en Malaisie, à Malacca.
 La publication de ses notes, ré arrangées par John McClelland fut faite à titre posthume de 1847 à 1854 sous le titre «Notulae ad Plantas Asiaticas» (Not. Pl. Asiat.), en 4 volumes.
-Zingiber spectabile y est décrit en 1851 dans le volume 3, page 413[1].
+Zingiber spectabile y est décrit en 1851 dans le volume 3, page 413.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La hampe florale de Zingiber spectabile peut mesurer 60 centimètres au bout d'une tige de 150 centimètres.
 			Zingiber spectabile
